--- a/public/static/files/Mau_Import_Team.xlsx
+++ b/public/static/files/Mau_Import_Team.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mai duy\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\esdmanagerweb\public\static\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D29D8C0-BCC6-4979-92A2-1EEB938D4E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4264C75D-E7CD-4987-AF37-386966721DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="1572" windowWidth="17280" windowHeight="8880" xr2:uid="{BC9A13CE-2CE6-403C-B23E-C8322D396127}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{BC9A13CE-2CE6-403C-B23E-C8322D396127}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,66 +35,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
-  <si>
-    <t>T1001</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>TEAM01</t>
   </si>
   <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>FA 2</t>
-  </si>
-  <si>
     <t>Team1001</t>
   </si>
   <si>
     <t>Đây là thiết bị 1001</t>
   </si>
   <si>
-    <t>T1002</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>FA 1</t>
-  </si>
-  <si>
     <t>Team1002</t>
   </si>
   <si>
     <t>Đây là thiết bị 1002</t>
   </si>
   <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Root Code</t>
-  </si>
-  <si>
-    <t>Parent Code</t>
-  </si>
-  <si>
-    <t>Area Code</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Devices</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Lead Code</t>
-  </si>
-  <si>
     <t>NV20</t>
+  </si>
+  <si>
+    <t>Mã khu vực</t>
+  </si>
+  <si>
+    <t>Tên team</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Mã team</t>
+  </si>
+  <si>
+    <t>Mã team cấp trên</t>
+  </si>
+  <si>
+    <t>Mã người quản lý</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAC3 </t>
+  </si>
+  <si>
+    <t>T10015</t>
+  </si>
+  <si>
+    <t>T10025</t>
   </si>
 </sst>
 </file>
@@ -150,9 +138,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -190,7 +178,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -296,7 +284,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -438,7 +426,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -446,101 +434,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9587BCC-C044-4F12-8416-23A1A21672FE}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="8" max="8" width="17.21875" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" customWidth="1"/>
+    <col min="5" max="5" width="23.453125" customWidth="1"/>
+    <col min="6" max="6" width="23.90625" customWidth="1"/>
+    <col min="7" max="7" width="39.90625" customWidth="1"/>
+    <col min="8" max="8" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B6" t="s">
         <v>0</v>
       </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
         <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-      <c r="H5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
-      </c>
-      <c r="H6" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>